--- a/sds_3Dtest/.ferret_3D.xlsx
+++ b/sds_3Dtest/.ferret_3D.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3666521-5B08-4D32-978B-78ABBD6E2678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F894292-478F-4148-897B-E759E69D4E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
     <sheet name="intf" sheetId="2" r:id="rId2"/>
+    <sheet name="intf2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>llc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3098,8 +3099,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.9516284514518993E-2"/>
-              <c:y val="0.38302685684489823"/>
+              <c:x val="0.87475083366787487"/>
+              <c:y val="0.42893185300194281"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3319,7 +3320,1608 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>IPC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>随不同强度干扰的变化</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="150"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6838066242418057E-2"/>
+          <c:y val="0.10206954134132416"/>
+          <c:w val="0.91444683044325237"/>
+          <c:h val="0.77307092246562858"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>intf2!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5477000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5431999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5246999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5235000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>intf2!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5474000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5417000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5254000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5193000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5108999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>intf2!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5368999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5246999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>intf2!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5373000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5237000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4926999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4975000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>intf2!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5031000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4872000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4851000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4763999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4441999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>intf2!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4807999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4503999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4128000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3528</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3231999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>intf2!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4104000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3837999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3714999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2876000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>intf2!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4025000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3982000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3835999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3299000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2694000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>intf2!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9000MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>intf2!$C$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4221999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4248000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3357000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3319000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2854000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2876000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B797-46C6-BB95-E80CB277BE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1024401360"/>
+        <c:axId val="572011008"/>
+        <c:axId val="570983344"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="1024401360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-900000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>llc</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>干扰强度</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.64328511436089342"/>
+              <c:y val="0.7586593173103916"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572011008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572011008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+          <c:min val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.88472296306454956"/>
+              <c:y val="0.42684525936605344"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024401360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="570983344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>mbw</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t>干扰强度</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.14612070157097012"/>
+              <c:y val="0.66553778410797737"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572011008"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3329,15 +4931,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>404810</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>157160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3369,16 +4971,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>347659</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280984</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3386,6 +4988,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9875ED37-CED5-40AB-A2EC-87F10AFACC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33334</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F24487-F869-4CB4-A757-5E1C1D44C9ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4038,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1A4983-9D84-494A-9F85-6F97553D5D7E}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4397,6 +6042,379 @@
       </c>
       <c r="L11">
         <v>1.2518</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A53D65-5E45-4B3A-B4B9-A26F23FA7CE9}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:Y25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1.5543</v>
+      </c>
+      <c r="D3">
+        <v>1.5477000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.5431999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.5361</v>
+      </c>
+      <c r="G3">
+        <v>1.5315000000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.5338000000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.5246999999999999</v>
+      </c>
+      <c r="J3">
+        <v>1.5235000000000001</v>
+      </c>
+      <c r="K3">
+        <v>1.5213000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1.5199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1.5474000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.5417000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.538</v>
+      </c>
+      <c r="F4">
+        <v>1.5315000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.5279</v>
+      </c>
+      <c r="H4">
+        <v>1.5254000000000001</v>
+      </c>
+      <c r="I4">
+        <v>1.5193000000000001</v>
+      </c>
+      <c r="J4">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.5141</v>
+      </c>
+      <c r="L4">
+        <v>1.5108999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1.5419</v>
+      </c>
+      <c r="D5">
+        <v>1.5368999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.5282</v>
+      </c>
+      <c r="F5">
+        <v>1.5246999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.5162</v>
+      </c>
+      <c r="I5">
+        <v>1.5111000000000001</v>
+      </c>
+      <c r="J5">
+        <v>1.5111000000000001</v>
+      </c>
+      <c r="K5">
+        <v>1.5033000000000001</v>
+      </c>
+      <c r="L5">
+        <v>1.5039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1.5373000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.5306</v>
+      </c>
+      <c r="E6">
+        <v>1.5237000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.5157</v>
+      </c>
+      <c r="G6">
+        <v>1.5143</v>
+      </c>
+      <c r="H6">
+        <v>1.5065</v>
+      </c>
+      <c r="I6">
+        <v>1.5007999999999999</v>
+      </c>
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>1.4926999999999999</v>
+      </c>
+      <c r="L6">
+        <v>1.4975000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1.5245</v>
+      </c>
+      <c r="D7">
+        <v>1.518</v>
+      </c>
+      <c r="E7">
+        <v>1.5111000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.5031000000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.492</v>
+      </c>
+      <c r="H7">
+        <v>1.4872000000000001</v>
+      </c>
+      <c r="I7">
+        <v>1.4851000000000001</v>
+      </c>
+      <c r="J7">
+        <v>1.4763999999999999</v>
+      </c>
+      <c r="K7">
+        <v>1.4696</v>
+      </c>
+      <c r="L7">
+        <v>1.4441999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1.5141</v>
+      </c>
+      <c r="D8">
+        <v>1.5021</v>
+      </c>
+      <c r="E8">
+        <v>1.4923999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.4807999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.4695</v>
+      </c>
+      <c r="H8">
+        <v>1.4503999999999999</v>
+      </c>
+      <c r="I8">
+        <v>1.4341999999999999</v>
+      </c>
+      <c r="J8">
+        <v>1.4128000000000001</v>
+      </c>
+      <c r="K8">
+        <v>1.3528</v>
+      </c>
+      <c r="L8">
+        <v>1.3231999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.4656</v>
+      </c>
+      <c r="E9">
+        <v>1.4294</v>
+      </c>
+      <c r="F9">
+        <v>1.4104000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.3837999999999999</v>
+      </c>
+      <c r="H9">
+        <v>1.3714999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.3466</v>
+      </c>
+      <c r="J9">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="K9">
+        <v>1.2876000000000001</v>
+      </c>
+      <c r="L9">
+        <v>1.2884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.4434</v>
+      </c>
+      <c r="D10">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="E10">
+        <v>1.4025000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.3982000000000001</v>
+      </c>
+      <c r="G10">
+        <v>1.3835999999999999</v>
+      </c>
+      <c r="H10">
+        <v>1.3403</v>
+      </c>
+      <c r="I10">
+        <v>1.3299000000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.3267</v>
+      </c>
+      <c r="K10">
+        <v>1.2826</v>
+      </c>
+      <c r="L10">
+        <v>1.2694000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1.4624999999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.4221999999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.4248000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.3834</v>
+      </c>
+      <c r="H11">
+        <v>1.3357000000000001</v>
+      </c>
+      <c r="I11">
+        <v>1.3239000000000001</v>
+      </c>
+      <c r="J11">
+        <v>1.3319000000000001</v>
+      </c>
+      <c r="K11">
+        <v>1.2854000000000001</v>
+      </c>
+      <c r="L11">
+        <v>1.2876000000000001</v>
       </c>
     </row>
   </sheetData>
